--- a/input/reg_wages.xlsx
+++ b/input/reg_wages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB471D04-A9DD-41A8-AD5D-6BA1060573AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA482D-CAA6-4F6D-8468-17ED41F65573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="904" activeTab="4" xr2:uid="{6CB21A7A-188F-4F8B-8780-61773379EBED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="904" activeTab="1" xr2:uid="{6CB21A7A-188F-4F8B-8780-61773379EBED}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="13" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="82">
   <si>
     <t>b</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>RealWageGrowth</t>
+  </si>
+  <si>
+    <t>UKI</t>
   </si>
 </sst>
 </file>
@@ -676,14 +679,14 @@
       <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -695,7 +698,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -705,7 +708,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -713,7 +716,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -721,7 +724,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -729,7 +732,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -737,7 +740,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -745,7 +748,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -753,7 +756,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -779,14 +782,14 @@
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="19.59765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,7 +835,7 @@
         <v>5.7646451527085717E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,7 +861,7 @@
         <v>-3.8174889274016706E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,7 +887,7 @@
         <v>-0.48650213512349244</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,7 +913,7 @@
         <v>-0.33333776230736689</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,7 +939,7 @@
         <v>-6.811767779876339E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,7 +965,7 @@
         <v>-7.2922155022772273E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,7 +991,7 @@
         <v>-0.10655294047807748</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>-3.5145844863158429E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>-3.215027190546485E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>1.1879669274795224E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>-4.7304127452986178E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>-6.4115877879110716E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>-0.10557239353592664</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>-8.544208088959962E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>-0.12386971391711303</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>1.8796136463467308</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>0.1303549436042736</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>-1.2590236657543095E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>-0.23106621236829855</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>-8.3581775258985996E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>0.22759230642798656</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>0.33659366189861156</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>0.28864499349943756</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>0.26511448097659907</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>0.27791965925949791</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>0.32268561121866679</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>0.27475225665808989</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>0.48448797331549642</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>0.37854100269155955</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>0.29781971445464106</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>0.35622742656808559</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>9.5563091068809003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>0.26299840993350776</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>-0.20894807529615572</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>-0.42956243305516251</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>-0.70219073659588771</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>-0.10640236440734298</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,7 +1779,7 @@
         <v>0.64217132918305753</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>-0.32097742868980622</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -1805,14 +1808,14 @@
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>3.6315342939259469E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>3.090696378873711E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>-0.28470053261154693</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +1939,7 @@
         <v>-0.26039454331730227</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>0.13493054998497719</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>-3.8427499332825854E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>1.9238293715450036E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>1.3093395686172543E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>-5.5951450507746234E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>7.7024247861344819E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>0.14583800840782019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>-4.135787135590123E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>-6.9108551859656669E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>4.0006155515069232E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>-0.13996637044553256</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>3.283725771253819</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>0.1299328558080961</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>-1.2673704380862941E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>-0.16501807252904052</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>-7.7334219481094105E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>-0.10160383789821809</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>0.17828253643193698</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>0.11737792688148418</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>0.23153641209151987</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>0.23933775769929344</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>0.38983327041600557</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>0.24025075184609418</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>0.26008418397103428</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -2586,7 +2589,7 @@
         <v>0.21762627031788526</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>0.10558297885777725</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>8.6727356997200106E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>-0.30442470678302536</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>-9.1876758940049819E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>6.0663097578549235E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>0.14675349385474248</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>-8.0643549334122822E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>-0.76723334027173307</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>1.2045295081933425</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -2831,12 +2834,12 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>7.0553313750463056E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>-8.4233751492367206E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>-4.4791140160401751E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>-1.1708687357527273E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>7.3567147567024947E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3776,7 +3779,7 @@
         <v>2.0295008862019137E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>1.5165213996484481E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>1.1559942168007889E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4133,7 +4136,7 @@
         <v>1.3468575231286394E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -4252,7 +4255,7 @@
         <v>1.6673147582043656E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>1.5228589015743745E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>3.3072333138257383E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -4609,7 +4612,7 @@
         <v>2.1481424887189552E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>1.893591541179676E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4847,7 +4850,7 @@
         <v>1.6321380657944155E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>-2.3403241447719006E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -5323,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -5561,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -5799,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -6037,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -6513,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -6632,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -6989,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -7478,12 +7481,12 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7828,7 +7831,7 @@
         <v>2.4805696823932211E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -7947,7 +7950,7 @@
         <v>-3.0162850298519085E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8066,7 +8069,7 @@
         <v>-5.5690786020967265E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>-2.3951083733515862E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -8304,7 +8307,7 @@
         <v>-5.1027595388302592E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -8423,7 +8426,7 @@
         <v>3.9093844021311538E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>-5.5431553264900541E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>9.0686468835602101E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -8780,7 +8783,7 @@
         <v>1.177044354638174E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>3.1592979200892051E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -9018,7 +9021,7 @@
         <v>1.4518531070721163E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -9137,7 +9140,7 @@
         <v>1.6119796797005041E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -9256,7 +9259,7 @@
         <v>4.311403950272526E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -9375,7 +9378,7 @@
         <v>-6.6098224694919488E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -9494,7 +9497,7 @@
         <v>-6.4188786923922406E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -9613,7 +9616,7 @@
         <v>-5.5544971636179864E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -9970,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -10446,7 +10449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -10565,7 +10568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -10684,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -10803,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -11160,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -11279,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -11636,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -11755,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
@@ -11874,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -11993,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -12125,14 +12128,14 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -12152,7 +12155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -12178,7 +12181,7 @@
         <v>4.6915934479977849E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -12204,7 +12207,7 @@
         <v>-1.9222734930370296E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -12230,7 +12233,7 @@
         <v>-0.5640671639673901</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -12256,7 +12259,7 @@
         <v>-0.23327935640003725</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>0.12686023760449727</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -12308,7 +12311,7 @@
         <v>0.12129959223453655</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -12334,7 +12337,7 @@
         <v>-7.2911310959599199E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>4.0124633990183158E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -12386,7 +12389,7 @@
         <v>1.8483505140288836</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -12412,7 +12415,7 @@
         <v>0.222355467439417</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -12438,7 +12441,7 @@
         <v>-2.2662070051609777E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -12464,7 +12467,7 @@
         <v>-1.2542847176792222</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -12490,7 +12493,7 @@
         <v>-0.58588363714621716</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -12516,7 +12519,7 @@
         <v>0.16152782213294292</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -12542,7 +12545,7 @@
         <v>0.30431981954019538</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -12568,7 +12571,7 @@
         <v>-0.49532294568266505</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -12594,7 +12597,7 @@
         <v>-0.4578569578966018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -12620,7 +12623,7 @@
         <v>0.63892824413571381</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -12646,7 +12649,7 @@
         <v>0.66637136214135051</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -12672,7 +12675,7 @@
         <v>-0.12453229237506515</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -12698,7 +12701,7 @@
         <v>8.2360112363702206E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -12724,7 +12727,7 @@
         <v>-2.619480976961392</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -12750,7 +12753,7 @@
         <v>9.936082077577349E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>0.56923974721727677</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -12766,7 +12769,7 @@
         <v>2.9607362665623915E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -12774,7 +12777,7 @@
         <v>0.56916988238278243</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -12795,14 +12798,14 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="31.265625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -12822,7 +12825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -12848,7 +12851,7 @@
         <v>2.1531316202402135E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -12874,7 +12877,7 @@
         <v>1.2526774776164333E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -12900,7 +12903,7 @@
         <v>-0.26979915241685204</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -12926,7 +12929,7 @@
         <v>-0.21794362147648899</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -12952,7 +12955,7 @@
         <v>0.12413340457879617</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -12978,7 +12981,7 @@
         <v>0.13001094243337696</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -13004,7 +13007,7 @@
         <v>-1.4701273609276304E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -13030,7 +13033,7 @@
         <v>2.3844585991469811E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -13056,7 +13059,7 @@
         <v>2.7186317410825565</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -13082,7 +13085,7 @@
         <v>0.16135372717910268</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -13108,7 +13111,7 @@
         <v>-1.4177851568920609E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -13134,7 +13137,7 @@
         <v>-0.66528963987080947</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -13160,7 +13163,7 @@
         <v>-0.1964802065364529</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -13186,7 +13189,7 @@
         <v>0.18889269597021136</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -13212,7 +13215,7 @@
         <v>0.36885903926174951</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -13238,7 +13241,7 @@
         <v>-0.39693062407133622</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -13264,7 +13267,7 @@
         <v>-0.46494546148415528</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -13290,7 +13293,7 @@
         <v>-0.48144487636540673</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -13316,7 +13319,7 @@
         <v>-0.22123672487048202</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -13342,7 +13345,7 @@
         <v>0.13706279648438247</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -13368,7 +13371,7 @@
         <v>0.6499397437057719</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -13394,7 +13397,7 @@
         <v>-0.34569631079408197</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -13420,7 +13423,7 @@
         <v>-0.52530067958047699</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -13428,7 +13431,7 @@
         <v>0.70815083726733563</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -13436,7 +13439,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -13444,7 +13447,7 @@
         <v>0.58166506869277523</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -13463,12 +13466,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -13539,7 +13542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -13610,7 +13613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -13687,7 +13690,7 @@
         <v>1.1949787753350353E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -13764,7 +13767,7 @@
         <v>-1.4678050056903316E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -13841,7 +13844,7 @@
         <v>-1.3441834933891231E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -13918,7 +13921,7 @@
         <v>-4.4658843580063065E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -13995,7 +13998,7 @@
         <v>6.3229148479652144E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -14072,7 +14075,7 @@
         <v>1.3218339642355971E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -14149,7 +14152,7 @@
         <v>-5.3068088763998501E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -14226,7 +14229,7 @@
         <v>-5.2347776433318935E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -14303,7 +14306,7 @@
         <v>-2.6028358840160994E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -14380,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -14457,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -14534,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -14688,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -14765,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -14842,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -14919,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -14996,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -15073,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -15150,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -15227,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -15304,7 +15307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -15392,12 +15395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -15468,7 +15471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -15539,7 +15542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -15616,7 +15619,7 @@
         <v>4.4983438237556592E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -15693,7 +15696,7 @@
         <v>-4.8583612558881747E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -15770,7 +15773,7 @@
         <v>-2.144880813205882E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -15847,7 +15850,7 @@
         <v>-4.8421268243430918E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -15924,7 +15927,7 @@
         <v>1.1377945851019839E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -16001,7 +16004,7 @@
         <v>3.7155731534451993E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -16078,7 +16081,7 @@
         <v>-1.0733213710838086E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -16155,7 +16158,7 @@
         <v>-1.3406152086593197E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -16232,7 +16235,7 @@
         <v>-1.0519517751866802E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -16309,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -16386,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -16463,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -16540,7 +16543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -16617,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -16694,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -16771,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -16848,7 +16851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -16925,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -17002,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -17079,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -17156,7 +17159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -17233,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -17319,15 +17322,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D829DA-FDAF-4F09-8E54-2FFF14E875A0}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.59765625" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -17410,7 +17413,7 @@
         <v>38</v>
       </c>
       <c r="AB1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AC1" t="s">
         <v>40</v>
@@ -17437,7 +17440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17547,7 +17550,7 @@
         <v>-1.7512470876040844E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -17657,7 +17660,7 @@
         <v>1.0627389256132984E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -17767,7 +17770,7 @@
         <v>-1.3765182123460904E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -17877,7 +17880,7 @@
         <v>-3.090848225247478E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -17987,7 +17990,7 @@
         <v>-1.1004008558275168E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -18097,7 +18100,7 @@
         <v>6.068997158689943E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -18207,7 +18210,7 @@
         <v>2.0293546926341367E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -18317,7 +18320,7 @@
         <v>-1.3474414689822438E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -18427,7 +18430,7 @@
         <v>-3.0669747868929971E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -18537,7 +18540,7 @@
         <v>-4.3922738200762046E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -18647,7 +18650,7 @@
         <v>2.338283960989342E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -18757,7 +18760,7 @@
         <v>-1.5012474456522641E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -18867,7 +18870,7 @@
         <v>1.9121358364506175E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -18977,7 +18980,7 @@
         <v>-8.4598268349399285E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -19087,7 +19090,7 @@
         <v>-3.1515086108401778E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -19197,7 +19200,7 @@
         <v>-3.4498222839930421E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -19307,7 +19310,7 @@
         <v>5.903043415219554E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -19417,7 +19420,7 @@
         <v>9.5900068855505802E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -19527,7 +19530,7 @@
         <v>8.7479958420936805E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -19637,7 +19640,7 @@
         <v>1.6962733704585539E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -19747,7 +19750,7 @@
         <v>-1.3521313142342072E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -19857,7 +19860,7 @@
         <v>-1.2595334602257288E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -19967,7 +19970,7 @@
         <v>-3.667707594287923E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -20077,7 +20080,7 @@
         <v>-3.8781617740275734E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -20187,9 +20190,9 @@
         <v>-2.3205549427162981E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>-1.5668988599216942E-2</v>
@@ -20297,7 +20300,7 @@
         <v>-1.2842540413671025E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -20407,7 +20410,7 @@
         <v>-2.1957488594518724E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -20517,7 +20520,7 @@
         <v>-6.7511421236306484E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -20627,7 +20630,7 @@
         <v>3.4542077618516972E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -20737,7 +20740,7 @@
         <v>3.2547518556292281E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -20847,7 +20850,7 @@
         <v>-5.2944879790404198E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -20957,7 +20960,7 @@
         <v>-1.6572776208009096E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -21067,7 +21070,7 @@
         <v>-2.4759020301329777E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -21187,15 +21190,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633241A9-378F-4C02-98E0-06617556254B}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -21278,7 +21283,7 @@
         <v>38</v>
       </c>
       <c r="AB1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AC1" t="s">
         <v>40</v>
@@ -21305,7 +21310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -21415,7 +21420,7 @@
         <v>-9.8364075124153109E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -21525,7 +21530,7 @@
         <v>9.7588889050538401E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -21635,7 +21640,7 @@
         <v>-1.1740768282032124E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -21745,7 +21750,7 @@
         <v>-9.3494508854282017E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -21855,7 +21860,7 @@
         <v>-5.8786501420785911E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -21965,7 +21970,7 @@
         <v>2.1718152460395875E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -22075,7 +22080,7 @@
         <v>1.0190582364216939E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -22185,7 +22190,7 @@
         <v>-5.5256336704855085E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -22295,7 +22300,7 @@
         <v>5.1103369627001911E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -22405,7 +22410,7 @@
         <v>4.8338258966118048E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -22515,7 +22520,7 @@
         <v>7.9189688492374579E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -22625,7 +22630,7 @@
         <v>-2.1625940814091378E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -22735,7 +22740,7 @@
         <v>-5.268234492686119E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -22845,7 +22850,7 @@
         <v>-1.2015812632074495E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -22955,7 +22960,7 @@
         <v>-1.957740238932899E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -23065,7 +23070,7 @@
         <v>2.5858348400427159E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -23175,7 +23180,7 @@
         <v>3.0309342792450701E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -23285,7 +23290,7 @@
         <v>3.2893461583284925E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -23395,7 +23400,7 @@
         <v>3.1907103637384472E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -23505,7 +23510,7 @@
         <v>6.8400839622576753E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -23615,7 +23620,7 @@
         <v>-1.0379570996853579E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -23725,7 +23730,7 @@
         <v>4.6073712483806305E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -23835,7 +23840,7 @@
         <v>2.2747023181028818E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -23945,7 +23950,7 @@
         <v>2.421995443460398E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -24055,9 +24060,9 @@
         <v>5.2345466321678706E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>2.3749131960819941E-2</v>
@@ -24165,7 +24170,7 @@
         <v>-4.2832254586641308E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -24275,7 +24280,7 @@
         <v>3.2941082035275174E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -24385,7 +24390,7 @@
         <v>2.679904628111283E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -24495,7 +24500,7 @@
         <v>3.282145734252467E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -24605,7 +24610,7 @@
         <v>5.027268442212528E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -24715,7 +24720,7 @@
         <v>-1.080679318924079E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -24825,7 +24830,7 @@
         <v>4.3175213022745452E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -24935,7 +24940,7 @@
         <v>-2.5434134347101064E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -25054,15 +25059,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B91825F-87E3-4475-A5A2-C198179C8D7E}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.265625" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -25142,7 +25149,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
         <v>40</v>
@@ -25169,7 +25176,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -25276,7 +25283,7 @@
         <v>8.3798506916048891E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -25383,7 +25390,7 @@
         <v>-1.5027189301740796E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -25490,7 +25497,7 @@
         <v>-6.1522737518634546E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -25597,7 +25604,7 @@
         <v>-0.1755528830047772</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -25704,7 +25711,7 @@
         <v>1.1169207382022701E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -25811,7 +25818,7 @@
         <v>3.0026399551988736E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -25918,7 +25925,7 @@
         <v>-0.10867529250638215</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -26025,7 +26032,7 @@
         <v>4.9478335277982552E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -26132,7 +26139,7 @@
         <v>-4.4876310517451288E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -26239,7 +26246,7 @@
         <v>1.0968841820389527E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -26346,7 +26353,7 @@
         <v>-1.0703280410772164E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -26453,7 +26460,7 @@
         <v>3.4434261782983006E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -26560,7 +26567,7 @@
         <v>5.5481914076834133E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -26667,7 +26674,7 @@
         <v>-0.27689383913991072</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -26774,7 +26781,7 @@
         <v>5.0952520415301766E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -26881,7 +26888,7 @@
         <v>8.4327668823880333E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -26988,7 +26995,7 @@
         <v>9.7229619415288696E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -27095,7 +27102,7 @@
         <v>0.10102307649146948</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -27202,7 +27209,7 @@
         <v>-3.0264170266095212E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -27309,7 +27316,7 @@
         <v>-3.0781056443439848E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -27416,7 +27423,7 @@
         <v>-3.485100444262685E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -27523,7 +27530,7 @@
         <v>-2.6767858748402748E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -27630,7 +27637,7 @@
         <v>-2.12874681299891E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -27737,9 +27744,9 @@
         <v>-1.2504896729915288E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>-4.6312517600102757E-2</v>
@@ -27844,7 +27851,7 @@
         <v>-2.6051209358762907E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -27951,7 +27958,7 @@
         <v>-1.145184313567265E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -28058,7 +28065,7 @@
         <v>-3.2423893986486714E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -28165,7 +28172,7 @@
         <v>-2.8869843977218864E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -28272,7 +28279,7 @@
         <v>-2.2959230242853776E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -28379,7 +28386,7 @@
         <v>-5.7612090112320151E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -28486,7 +28493,7 @@
         <v>-6.7566908163396817E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -28593,7 +28600,7 @@
         <v>-0.32199072665421624</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -28709,15 +28716,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD45998E-0E57-4A0A-9635-2DF000C7830A}">
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -28797,7 +28806,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
         <v>40</v>
@@ -28824,7 +28833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -28931,7 +28940,7 @@
         <v>4.7805440351931152E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -29038,7 +29047,7 @@
         <v>-7.0445727408935014E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -29145,7 +29154,7 @@
         <v>-1.5534125241057985E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -29252,7 +29261,7 @@
         <v>-5.5372481306214284E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -29359,7 +29368,7 @@
         <v>8.0600945921691149E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -29466,7 +29475,7 @@
         <v>6.3165571046989847E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -29573,7 +29582,7 @@
         <v>-2.6205216875008354E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -29680,7 +29689,7 @@
         <v>-6.1138307158900812E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -29787,7 +29796,7 @@
         <v>-1.0644199032538694E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -29894,7 +29903,7 @@
         <v>1.2508938773925832E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -30001,7 +30010,7 @@
         <v>1.9614772441709266E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -30108,7 +30117,7 @@
         <v>-6.0438473336839145E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -30215,7 +30224,7 @@
         <v>-2.6124971758337622E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -30322,7 +30331,7 @@
         <v>-8.7402881241818775E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -30429,7 +30438,7 @@
         <v>1.5356025032034119E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -30536,7 +30545,7 @@
         <v>2.7567271759112558E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -30643,7 +30652,7 @@
         <v>3.3492761265496378E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -30750,7 +30759,7 @@
         <v>3.389854004676545E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -30857,7 +30866,7 @@
         <v>-8.5273949205763033E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -30964,7 +30973,7 @@
         <v>-2.8701280596811389E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -31071,7 +31080,7 @@
         <v>-4.6527690938310317E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -31178,7 +31187,7 @@
         <v>-1.2514815622079521E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -31285,7 +31294,7 @@
         <v>-3.1438447422155735E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -31392,9 +31401,9 @@
         <v>-1.7404644592856984E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>6.6373984913804793E-2</v>
@@ -31499,7 +31508,7 @@
         <v>-4.9506281400356917E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -31606,7 +31615,7 @@
         <v>2.9693016250929623E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -31713,7 +31722,7 @@
         <v>-2.6493967603937602E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -31820,7 +31829,7 @@
         <v>2.4685467026839937E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -31927,7 +31936,7 @@
         <v>-3.4705739576502302E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -32034,7 +32043,7 @@
         <v>2.2756577957269987E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -32141,7 +32150,7 @@
         <v>-8.3700417197966957E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -32248,7 +32257,7 @@
         <v>-0.14489253681815428</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -32369,13 +32378,13 @@
       <selection activeCell="A6" sqref="A6:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.265625" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -32434,7 +32443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -32493,7 +32502,7 @@
         <v>-3.5958273826625191E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -32552,7 +32561,7 @@
         <v>4.2902836145114983E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -32611,7 +32620,7 @@
         <v>5.1001916843723214E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -32670,7 +32679,7 @@
         <v>2.025914225537283E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -32729,7 +32738,7 @@
         <v>4.1536346496968465E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -32788,7 +32797,7 @@
         <v>-1.8472652672588384E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -32847,7 +32856,7 @@
         <v>-7.7129800545427604E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -32906,7 +32915,7 @@
         <v>-2.3090567420704427E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -32965,7 +32974,7 @@
         <v>-2.7378647984437057E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -33024,7 +33033,7 @@
         <v>-4.8406526719325191E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -33083,7 +33092,7 @@
         <v>-3.0411181036727932E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -33142,7 +33151,7 @@
         <v>-3.1157954585914879E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -33201,7 +33210,7 @@
         <v>-1.8628252176943775E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -33260,7 +33269,7 @@
         <v>-6.0961963657494558E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -33319,7 +33328,7 @@
         <v>-5.4541383192756071E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -33378,7 +33387,7 @@
         <v>-5.5544971636179864E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -33451,13 +33460,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="13.265625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -33516,7 +33525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -33575,7 +33584,7 @@
         <v>-3.5582563599287305E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -33634,7 +33643,7 @@
         <v>4.0825956688712221E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -33693,7 +33702,7 @@
         <v>2.6047616402515127E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -33752,7 +33761,7 @@
         <v>-7.9326916312311624E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -33811,7 +33820,7 @@
         <v>-5.4349320970388222E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -33870,7 +33879,7 @@
         <v>-6.2813435653198408E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -33929,7 +33938,7 @@
         <v>-6.2466871673765891E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -33988,7 +33997,7 @@
         <v>-5.4593216632839144E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -34047,7 +34056,7 @@
         <v>-6.0810318160514089E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -34106,7 +34115,7 @@
         <v>-6.051330606038712E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -34165,7 +34174,7 @@
         <v>-6.034784883946476E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -34224,7 +34233,7 @@
         <v>-7.4032099751964581E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -34283,7 +34292,7 @@
         <v>-6.5996112992265155E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -34342,7 +34351,7 @@
         <v>-6.3794419204214736E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -34401,7 +34410,7 @@
         <v>-5.6387674629136014E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -34460,7 +34469,7 @@
         <v>-2.3403241447719006E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -34532,13 +34541,13 @@
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.265625" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -34576,7 +34585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -34614,7 +34623,7 @@
         <v>-9.140079217758786E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -34652,7 +34661,7 @@
         <v>9.9566527134667353E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -34690,7 +34699,7 @@
         <v>2.1401027395786349E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -34728,7 +34737,7 @@
         <v>2.8034582878645791E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -34766,7 +34775,7 @@
         <v>-3.5803342382941189E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -34804,7 +34813,7 @@
         <v>-6.6914619018107317E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -34842,7 +34851,7 @@
         <v>1.0431882978837515E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -34880,7 +34889,7 @@
         <v>1.4006909687041683E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -34918,7 +34927,7 @@
         <v>-1.0519517751866802E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -34969,13 +34978,13 @@
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.265625" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -35013,7 +35022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -35051,7 +35060,7 @@
         <v>-5.7545762562183117E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -35089,7 +35098,7 @@
         <v>6.5841582439310559E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -35127,7 +35136,7 @@
         <v>1.5088551836424527E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -35165,7 +35174,7 @@
         <v>5.01996666071206E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -35203,7 +35212,7 @@
         <v>-2.4050268823468839E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -35241,7 +35250,7 @@
         <v>-3.5663728311151788E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -35279,7 +35288,7 @@
         <v>5.6374351594659427E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -35317,7 +35326,7 @@
         <v>5.6484378005511662E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -35355,7 +35364,7 @@
         <v>-2.6028358840160994E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>

--- a/input/reg_wages.xlsx
+++ b/input/reg_wages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dasha\ESSEX\ESPON 2024\UK\regression_estimates\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587A2326-5464-447A-9563-81FF0C1F82A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F716165A-9D3A-4318-AF59-5408FA431F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="904" firstSheet="4" activeTab="8" xr2:uid="{6CB21A7A-188F-4F8B-8780-61773379EBED}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="904" xr2:uid="{6CB21A7A-188F-4F8B-8780-61773379EBED}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="13" r:id="rId1"/>
@@ -29,18 +29,10 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -11611,9 +11603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11651,7 +11643,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11757,7 +11749,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11899,7 +11891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11910,18 +11902,18 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -11933,7 +11925,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -11943,7 +11935,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -11951,7 +11943,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -11959,7 +11951,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -11967,7 +11959,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -11975,7 +11967,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -11983,7 +11975,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -11991,7 +11983,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -11999,32 +11991,32 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -12041,24 +12033,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D829DA-FDAF-4F09-8E54-2FFF14E875A0}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:F9"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:F9"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:F9"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.2265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12156,7 +12148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -12254,7 +12246,7 @@
         <v>1.4695206939257187E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12352,7 +12344,7 @@
         <v>2.7067831945665487E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12450,7 +12442,7 @@
         <v>-3.4138818149904618E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12548,7 +12540,7 @@
         <v>-1.0219981781625217E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -12646,7 +12638,7 @@
         <v>-2.6137662137845946E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -12744,7 +12736,7 @@
         <v>1.7665316155547456E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -12842,7 +12834,7 @@
         <v>4.2046931080756721E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -12940,7 +12932,7 @@
         <v>-3.3804403884586825E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -13038,7 +13030,7 @@
         <v>9.2089903806698257E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -13136,7 +13128,7 @@
         <v>-1.3339718824101292E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -13234,7 +13226,7 @@
         <v>-8.1256064562069946E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -13332,7 +13324,7 @@
         <v>4.7870855014682024E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -13430,7 +13422,7 @@
         <v>6.8820904717693994E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -13528,7 +13520,7 @@
         <v>7.3868688726432419E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -13626,7 +13618,7 @@
         <v>7.6772051199327249E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -13724,7 +13716,7 @@
         <v>3.9537993219213805E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -13822,7 +13814,7 @@
         <v>4.3492136655778614E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -13920,7 +13912,7 @@
         <v>2.6059397780911513E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -14018,7 +14010,7 @@
         <v>4.4286994600305576E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -14116,7 +14108,7 @@
         <v>3.236024189607375E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -14214,7 +14206,7 @@
         <v>4.7569160423826113E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -14312,7 +14304,7 @@
         <v>4.7459108239909635E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -14410,7 +14402,7 @@
         <v>4.9173940631201847E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -14508,7 +14500,7 @@
         <v>4.3678194334795337E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -14606,7 +14598,7 @@
         <v>5.7431375581040516E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -14704,7 +14696,7 @@
         <v>4.7463495750232475E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -14802,7 +14794,7 @@
         <v>-1.8674938099139406E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -14900,7 +14892,7 @@
         <v>-1.3004659563767136E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -14998,7 +14990,7 @@
         <v>-7.3887487215762264E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -15095,12 +15087,6 @@
       <c r="AF31">
         <v>8.4005502466020874E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.75">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15110,24 +15096,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633241A9-378F-4C02-98E0-06617556254B}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AX29" sqref="AX29"/>
       <selection pane="topRight" activeCell="AX29" sqref="AX29"/>
       <selection pane="bottomLeft" activeCell="AX29" sqref="AX29"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.2265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15225,7 +15211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -15323,7 +15309,7 @@
         <v>-1.0579116017652836E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15421,7 +15407,7 @@
         <v>3.6889234007755618E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15519,7 +15505,7 @@
         <v>-4.4760986232213627E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15617,7 +15603,7 @@
         <v>-1.0765881038592938E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -15715,7 +15701,7 @@
         <v>-2.923605042627871E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -15813,7 +15799,7 @@
         <v>2.2356268716563613E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -15911,7 +15897,7 @@
         <v>4.995939260586454E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -16009,7 +15995,7 @@
         <v>-3.0603126201352885E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -16107,7 +16093,7 @@
         <v>3.7053368214278793E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -16205,7 +16191,7 @@
         <v>3.5882091642047188E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -16303,7 +16289,7 @@
         <v>-8.5788827833344454E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -16401,7 +16387,7 @@
         <v>8.7442978726698004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -16499,7 +16485,7 @@
         <v>1.1374954729120438E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -16597,7 +16583,7 @@
         <v>1.2160244747778902E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -16695,7 +16681,7 @@
         <v>1.2684425457743995E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -16793,7 +16779,7 @@
         <v>5.6568317194064573E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -16891,7 +16877,7 @@
         <v>3.2528470268692174E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -16989,7 +16975,7 @@
         <v>3.145680575436389E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -17087,7 +17073,7 @@
         <v>3.3055334931644277E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -17185,7 +17171,7 @@
         <v>2.583811489836251E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -17283,7 +17269,7 @@
         <v>3.7212160138175716E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -17381,7 +17367,7 @@
         <v>2.7991492741528815E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -17479,7 +17465,7 @@
         <v>3.5222421433651186E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -17577,7 +17563,7 @@
         <v>2.8091863497218519E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -17675,7 +17661,7 @@
         <v>5.1334609269015961E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -17773,7 +17759,7 @@
         <v>4.5659182683989463E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -17871,7 +17857,7 @@
         <v>-1.2759733838014661E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -17969,7 +17955,7 @@
         <v>1.2340862687529157E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -18067,7 +18053,7 @@
         <v>-1.0644454586038195E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -18164,12 +18150,6 @@
       <c r="AF31">
         <v>9.7402503078094158E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.75">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18185,16 +18165,16 @@
       <selection activeCell="AX29" sqref="AX29"/>
       <selection pane="topRight" activeCell="AX29" sqref="AX29"/>
       <selection pane="bottomLeft" activeCell="AX29" sqref="AX29"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.953125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18289,7 +18269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18384,7 +18364,7 @@
         <v>3.5589868546538112E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18479,7 +18459,7 @@
         <v>-5.5740243620283201E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18574,7 +18554,7 @@
         <v>-2.213263449671704E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -18669,7 +18649,7 @@
         <v>-6.3580016707417454E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -18764,7 +18744,7 @@
         <v>3.4695908654455646E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -18859,7 +18839,7 @@
         <v>1.0322064024617706E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -18954,7 +18934,7 @@
         <v>-3.9050708182652369E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -19049,7 +19029,7 @@
         <v>2.6069728513712035E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -19144,7 +19124,7 @@
         <v>5.1937841271931906E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -19239,7 +19219,7 @@
         <v>-1.1240382366185318E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -19334,7 +19314,7 @@
         <v>2.1592727240080023E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -19429,7 +19409,7 @@
         <v>3.5287447357644449E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -19524,7 +19504,7 @@
         <v>3.8417535400553271E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -19619,7 +19599,7 @@
         <v>4.1996299229340754E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -19714,7 +19694,7 @@
         <v>-2.2096901109086426E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -19809,7 +19789,7 @@
         <v>-1.0374307328947463E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -19904,7 +19884,7 @@
         <v>-1.662388739876906E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -19999,7 +19979,7 @@
         <v>3.6320558566391343E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -20094,7 +20074,7 @@
         <v>3.1254438510331853E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -20189,7 +20169,7 @@
         <v>6.272230379665199E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -20284,7 +20264,7 @@
         <v>7.7700966045653847E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -20379,7 +20359,7 @@
         <v>6.2605032755734752E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -20474,7 +20454,7 @@
         <v>2.1040589463713831E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -20569,7 +20549,7 @@
         <v>3.3168674729917657E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -20664,7 +20644,7 @@
         <v>-4.3030053025508971E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -20759,7 +20739,7 @@
         <v>2.5364994814199364E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -20854,7 +20834,7 @@
         <v>-7.1116166238381501E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -20949,7 +20929,7 @@
         <v>-1.3833648676076745E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -21054,19 +21034,19 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.953125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21161,7 +21141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21256,7 +21236,7 @@
         <v>4.1738551410683045E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -21351,7 +21331,7 @@
         <v>-5.251909032482031E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -21446,7 +21426,7 @@
         <v>-1.0152624319284828E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -21541,7 +21521,7 @@
         <v>-2.6966070051765408E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -21636,7 +21616,7 @@
         <v>1.3513268845226779E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -21731,7 +21711,7 @@
         <v>3.4949650522799968E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -21826,7 +21806,7 @@
         <v>-8.6522479218349008E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -21921,7 +21901,7 @@
         <v>-8.5217322420630417E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -22016,7 +21996,7 @@
         <v>-2.6515656952794093E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -22111,7 +22091,7 @@
         <v>-2.9247576701920833E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -22206,7 +22186,7 @@
         <v>5.4446120851418529E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -22301,7 +22281,7 @@
         <v>8.0933667922335401E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -22396,7 +22376,7 @@
         <v>9.6643707597785086E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -22491,7 +22471,7 @@
         <v>1.0481778970537745E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -22586,7 +22566,7 @@
         <v>-3.3351220550951471E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -22681,7 +22661,7 @@
         <v>7.2650011170441055E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -22776,7 +22756,7 @@
         <v>-2.2344992175338732E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -22871,7 +22851,7 @@
         <v>1.299450762092181E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -22966,7 +22946,7 @@
         <v>3.298555244796135E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -23061,7 +23041,7 @@
         <v>1.4920620713890098E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -23156,7 +23136,7 @@
         <v>1.9677963109277229E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -23251,7 +23231,7 @@
         <v>3.4570718801860161E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -23346,7 +23326,7 @@
         <v>1.8055535663294089E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -23441,7 +23421,7 @@
         <v>2.3410638171356946E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -23536,7 +23516,7 @@
         <v>7.721210662300149E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -23631,7 +23611,7 @@
         <v>-2.0389786447824562E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -23726,7 +23706,7 @@
         <v>-1.4180737445721792E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -23821,7 +23801,7 @@
         <v>-2.141295947278419E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -23923,23 +23903,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3CA497-CF01-45DB-9DBB-74D2FC240FB3}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:F9"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:F9"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:F9"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24037,7 +24017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -24166,7 +24146,7 @@
         <v>1.4695206939257187E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24295,7 +24275,7 @@
         <v>2.7067831945665487E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -24424,7 +24404,7 @@
         <v>-3.4138818149904618E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -24553,7 +24533,7 @@
         <v>-1.0219981781625217E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -24682,7 +24662,7 @@
         <v>-2.6137662137845946E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -24811,7 +24791,7 @@
         <v>1.7665316155547456E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -24940,7 +24920,7 @@
         <v>4.2046931080756721E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -25069,7 +25049,7 @@
         <v>-3.3804403884586825E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -25198,7 +25178,7 @@
         <v>9.2089903806698257E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -25327,7 +25307,7 @@
         <v>-1.3339718824101292E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -25456,7 +25436,7 @@
         <v>-8.1256064562069946E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -25585,7 +25565,7 @@
         <v>4.7870855014682024E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -25714,7 +25694,7 @@
         <v>6.8820904717693994E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -25843,7 +25823,7 @@
         <v>7.3868688726432419E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -25972,7 +25952,7 @@
         <v>7.6772051199327249E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -26101,7 +26081,7 @@
         <v>3.9537993219213805E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -26230,7 +26210,7 @@
         <v>4.3492136655778614E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -26359,7 +26339,7 @@
         <v>2.6059397780911513E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -26488,7 +26468,7 @@
         <v>4.4286994600305576E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -26617,7 +26597,7 @@
         <v>3.236024189607375E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -26746,7 +26726,7 @@
         <v>4.7569160423826113E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -26875,7 +26855,7 @@
         <v>4.7459108239909635E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -27004,7 +26984,7 @@
         <v>4.9173940631201847E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -27133,7 +27113,7 @@
         <v>4.3678194334795337E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -27262,7 +27242,7 @@
         <v>5.7431375581040516E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -27391,7 +27371,7 @@
         <v>4.7463495750232475E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -27520,7 +27500,7 @@
         <v>-1.8674938099139406E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -27649,7 +27629,7 @@
         <v>-1.3004659563767136E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -27778,7 +27758,7 @@
         <v>-7.3887487215762264E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -27907,7 +27887,6 @@
         <v>8.4005502466020874E-3</v>
       </c>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27916,23 +27895,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50435D6-57D3-49D5-9866-3F5DE13C3533}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:F9"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:F9"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:F9"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28030,7 +28009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -28159,7 +28138,7 @@
         <v>-1.0579116017652836E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -28288,7 +28267,7 @@
         <v>3.6889234007755618E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -28417,7 +28396,7 @@
         <v>-4.4760986232213627E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -28546,7 +28525,7 @@
         <v>-1.0765881038592938E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -28675,7 +28654,7 @@
         <v>-2.923605042627871E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -28804,7 +28783,7 @@
         <v>2.2356268716563613E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -28933,7 +28912,7 @@
         <v>4.995939260586454E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -29062,7 +29041,7 @@
         <v>-3.0603126201352885E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -29191,7 +29170,7 @@
         <v>3.7053368214278793E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -29320,7 +29299,7 @@
         <v>3.5882091642047188E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -29449,7 +29428,7 @@
         <v>-8.5788827833344454E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -29578,7 +29557,7 @@
         <v>8.7442978726698004E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -29707,7 +29686,7 @@
         <v>1.1374954729120438E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -29836,7 +29815,7 @@
         <v>1.2160244747778902E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -29965,7 +29944,7 @@
         <v>1.2684425457743995E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -30094,7 +30073,7 @@
         <v>5.6568317194064573E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -30223,7 +30202,7 @@
         <v>3.2528470268692174E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -30352,7 +30331,7 @@
         <v>3.145680575436389E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -30481,7 +30460,7 @@
         <v>3.3055334931644277E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -30610,7 +30589,7 @@
         <v>2.583811489836251E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -30739,7 +30718,7 @@
         <v>3.7212160138175716E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -30868,7 +30847,7 @@
         <v>2.7991492741528815E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -30997,7 +30976,7 @@
         <v>3.5222421433651186E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -31126,7 +31105,7 @@
         <v>2.8091863497218519E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -31255,7 +31234,7 @@
         <v>5.1334609269015961E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -31384,7 +31363,7 @@
         <v>4.5659182683989463E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -31513,7 +31492,7 @@
         <v>-1.2759733838014661E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -31642,7 +31621,7 @@
         <v>1.2340862687529157E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -31771,7 +31750,7 @@
         <v>-1.0644454586038195E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -31900,7 +31879,6 @@
         <v>9.7402503078094158E-3</v>
       </c>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31916,16 +31894,16 @@
       <selection activeCell="A2" sqref="A2:F9"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:F9"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:F9"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.953125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -32020,7 +31998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -32145,7 +32123,7 @@
         <v>3.5589868546538112E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -32270,7 +32248,7 @@
         <v>-5.5740243620283201E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32395,7 +32373,7 @@
         <v>-2.213263449671704E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -32520,7 +32498,7 @@
         <v>-6.3580016707417454E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -32645,7 +32623,7 @@
         <v>3.4695908654455646E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -32770,7 +32748,7 @@
         <v>1.0322064024617706E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -32895,7 +32873,7 @@
         <v>-3.9050708182652369E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -33020,7 +32998,7 @@
         <v>2.6069728513712035E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -33145,7 +33123,7 @@
         <v>5.1937841271931906E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -33270,7 +33248,7 @@
         <v>-1.1240382366185318E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -33395,7 +33373,7 @@
         <v>2.1592727240080023E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -33520,7 +33498,7 @@
         <v>3.5287447357644449E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -33645,7 +33623,7 @@
         <v>3.8417535400553271E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -33770,7 +33748,7 @@
         <v>4.1996299229340754E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -33895,7 +33873,7 @@
         <v>-2.2096901109086426E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -34020,7 +33998,7 @@
         <v>-1.0374307328947463E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -34145,7 +34123,7 @@
         <v>-1.662388739876906E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -34270,7 +34248,7 @@
         <v>3.6320558566391343E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -34395,7 +34373,7 @@
         <v>3.1254438510331853E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -34520,7 +34498,7 @@
         <v>6.272230379665199E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -34645,7 +34623,7 @@
         <v>7.7700966045653847E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -34770,7 +34748,7 @@
         <v>6.2605032755734752E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -34895,7 +34873,7 @@
         <v>2.1040589463713831E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -35020,7 +34998,7 @@
         <v>3.3168674729917657E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -35145,7 +35123,7 @@
         <v>-4.3030053025508971E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -35270,7 +35248,7 @@
         <v>2.5364994814199364E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -35395,7 +35373,7 @@
         <v>-7.1116166238381501E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -35520,7 +35498,7 @@
         <v>-1.3833648676076745E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -35654,21 +35632,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16DF087F-7A8D-4A04-A5B0-4ED7DB1FD9DB}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:F9"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:F9"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:F9"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.953125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35763,7 +35741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -35888,7 +35866,7 @@
         <v>4.1738551410683045E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -36013,7 +35991,7 @@
         <v>-5.251909032482031E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36138,7 +36116,7 @@
         <v>-1.0152624319284828E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -36263,7 +36241,7 @@
         <v>-2.6966070051765408E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -36388,7 +36366,7 @@
         <v>1.3513268845226779E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -36513,7 +36491,7 @@
         <v>3.4949650522799968E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -36638,7 +36616,7 @@
         <v>-8.6522479218349008E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -36763,7 +36741,7 @@
         <v>-8.5217322420630417E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -36888,7 +36866,7 @@
         <v>-2.6515656952794093E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -37013,7 +36991,7 @@
         <v>-2.9247576701920833E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -37138,7 +37116,7 @@
         <v>5.4446120851418529E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -37263,7 +37241,7 @@
         <v>8.0933667922335401E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -37388,7 +37366,7 @@
         <v>9.6643707597785086E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -37513,7 +37491,7 @@
         <v>1.0481778970537745E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -37638,7 +37616,7 @@
         <v>-3.3351220550951471E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -37763,7 +37741,7 @@
         <v>7.2650011170441055E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -37888,7 +37866,7 @@
         <v>-2.2344992175338732E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -38013,7 +37991,7 @@
         <v>1.299450762092181E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -38138,7 +38116,7 @@
         <v>3.298555244796135E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -38263,7 +38241,7 @@
         <v>1.4920620713890098E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -38388,7 +38366,7 @@
         <v>1.9677963109277229E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -38513,7 +38491,7 @@
         <v>3.4570718801860161E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -38638,7 +38616,7 @@
         <v>1.8055535663294089E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -38763,7 +38741,7 @@
         <v>2.3410638171356946E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -38888,7 +38866,7 @@
         <v>7.721210662300149E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -39013,7 +38991,7 @@
         <v>-2.0389786447824562E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -39138,7 +39116,7 @@
         <v>-1.4180737445721792E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -39263,7 +39241,7 @@
         <v>-2.141295947278419E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
